--- a/output/1Y_P61_1VAL-D.xlsx
+++ b/output/1Y_P61_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>656.3273</v>
       </c>
-      <c r="G2" s="1">
-        <v>656.3273</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.150100000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2363</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.150100000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E3" s="1">
+        <v>656.3273</v>
+      </c>
       <c r="F3" s="1">
         <v>628.5474</v>
       </c>
-      <c r="G3" s="1">
-        <v>1284.8747</v>
-      </c>
       <c r="H3" s="1">
-        <v>20335.9687</v>
+        <v>10387.8238</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5657</v>
+        <v>10387.8238</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.2363</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20335.9687</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0194</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E4" s="1">
+        <v>1284.8747</v>
+      </c>
       <c r="F4" s="1">
         <v>649.7346</v>
       </c>
-      <c r="G4" s="1">
-        <v>1934.6093</v>
-      </c>
       <c r="H4" s="1">
-        <v>29620.996</v>
+        <v>19672.8448</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.507</v>
+        <v>19672.8448</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.5657</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29620.996</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0236</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E5" s="1">
+        <v>1934.6093</v>
+      </c>
       <c r="F5" s="1">
         <v>620.7517</v>
       </c>
-      <c r="G5" s="1">
-        <v>2555.361</v>
-      </c>
       <c r="H5" s="1">
-        <v>40952.2154</v>
+        <v>31004.0482</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6534</v>
+        <v>31004.0482</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.507</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40952.2154</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0336</v>
+        <v>0.0449</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E6" s="1">
+        <v>2555.361</v>
+      </c>
       <c r="F6" s="1">
         <v>620.2627</v>
       </c>
-      <c r="G6" s="1">
-        <v>3175.6237</v>
-      </c>
       <c r="H6" s="1">
-        <v>50932.559</v>
+        <v>40984.413</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.7449</v>
+        <v>40984.413</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>15.6534</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.2</v>
       </c>
-      <c r="L6" s="1">
-        <v>459.965</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9540.035</v>
+        <v>348.2297</v>
       </c>
       <c r="O6" s="1">
-        <v>459.965</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51392.524</v>
+        <v>-9651.7703</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0086</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E7" s="1">
+        <v>3175.6237</v>
+      </c>
       <c r="F7" s="1">
-        <v>580.3134</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3755.9371</v>
+        <v>579.3931</v>
       </c>
       <c r="H7" s="1">
-        <v>64809.8215</v>
+        <v>54796.3404</v>
       </c>
       <c r="I7" s="1">
-        <v>60065.7093</v>
+        <v>348.2297</v>
       </c>
       <c r="J7" s="1">
-        <v>15.9922</v>
+        <v>55144.5701</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50049.7471</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.7606</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10065.7093</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>394.2557</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>65204.0772</v>
+        <v>-10049.7471</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0621</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E8" s="1">
+        <v>3755.0168</v>
+      </c>
       <c r="F8" s="1">
-        <v>563.0568</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4318.9939</v>
+        <v>562.1639</v>
       </c>
       <c r="H8" s="1">
-        <v>76809.8505</v>
+        <v>66779.9705</v>
       </c>
       <c r="I8" s="1">
-        <v>70131.4186</v>
+        <v>298.4826</v>
       </c>
       <c r="J8" s="1">
-        <v>16.2379</v>
+        <v>67078.4531</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60099.4942</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.0051</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10065.7093</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>328.5464</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>77138.397</v>
+        <v>-10049.7471</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0257</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E9" s="1">
+        <v>4317.1807</v>
+      </c>
       <c r="F9" s="1">
-        <v>563.0473</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4882.0412</v>
+        <v>562.1544</v>
       </c>
       <c r="H9" s="1">
-        <v>86824.66099999999</v>
+        <v>76778.9002</v>
       </c>
       <c r="I9" s="1">
-        <v>80197.1278</v>
+        <v>248.7355</v>
       </c>
       <c r="J9" s="1">
-        <v>16.427</v>
+        <v>77027.6357</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70149.24129999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.2489</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10065.7093</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>262.8371</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87087.4982</v>
+        <v>-10049.7471</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E10" s="1">
+        <v>4879.3351</v>
+      </c>
       <c r="F10" s="1">
-        <v>553.4441</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5435.4853</v>
+        <v>552.5665</v>
       </c>
       <c r="H10" s="1">
-        <v>98344.7784</v>
+        <v>88282.2984</v>
       </c>
       <c r="I10" s="1">
-        <v>90262.8371</v>
+        <v>198.9884</v>
       </c>
       <c r="J10" s="1">
-        <v>16.6062</v>
+        <v>88481.2868</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80198.9884</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.4365</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10065.7093</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>197.1278</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>98541.9063</v>
+        <v>-10049.7471</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.015</v>
+        <v>0.0167</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E11" s="1">
+        <v>5431.9016</v>
+      </c>
       <c r="F11" s="1">
-        <v>571.4867</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6006.9719</v>
+        <v>570.5804000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>105252.9611</v>
+        <v>95176.6931</v>
       </c>
       <c r="I11" s="1">
-        <v>100328.5464</v>
+        <v>149.2413</v>
       </c>
       <c r="J11" s="1">
-        <v>16.702</v>
+        <v>95325.9344</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90248.7355</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6146</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10065.7093</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>131.4186</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>105384.3797</v>
+        <v>-10049.7471</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0291</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.806</v>
       </c>
+      <c r="E12" s="1">
+        <v>6002.482</v>
+      </c>
       <c r="F12" s="1">
-        <v>565.2987000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6572.2707</v>
+        <v>564.4023</v>
       </c>
       <c r="H12" s="1">
-        <v>116419.2312</v>
+        <v>106326.1654</v>
       </c>
       <c r="I12" s="1">
-        <v>110394.2557</v>
+        <v>99.49420000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>16.797</v>
+        <v>106425.6596</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100298.4826</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7095</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10065.7093</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>65.7093</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>116484.9405</v>
+        <v>-10049.7471</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0095</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E13" s="1">
+        <v>6566.8843</v>
+      </c>
       <c r="F13" s="1">
-        <v>548.4683</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7120.739</v>
+        <v>547.5984999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>130004.7555</v>
+        <v>119892.9198</v>
       </c>
       <c r="I13" s="1">
-        <v>120459.965</v>
+        <v>49.7471</v>
       </c>
       <c r="J13" s="1">
-        <v>16.9168</v>
+        <v>119942.6669</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110348.2297</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.8037</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10065.7093</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>130004.7555</v>
+        <v>-10049.7471</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0278</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E14" s="1">
+        <v>7114.4828</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7120.739</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6566.8843</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125891.4847</v>
       </c>
       <c r="I14" s="1">
-        <v>120459.965</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.9168</v>
+        <v>125891.4847</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110348.2297</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5104</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>126002.1881</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>126002.1881</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126002.1881</v>
+        <v>116201.6742</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1</v>
+        <v>-0.0312</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.2363</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>656.3273</v>
       </c>
       <c r="G2" s="1">
-        <v>656.3273</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.150100000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2363</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.150100000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.9097</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>656.3273</v>
       </c>
       <c r="F3" s="1">
         <v>607.3201</v>
       </c>
       <c r="G3" s="1">
-        <v>1263.6474</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10387.8238</v>
       </c>
       <c r="I3" s="1">
-        <v>19662.2801</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5599</v>
+        <v>10387.8238</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9662.2801</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.7217</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9662.2801</v>
       </c>
-      <c r="O3" s="1">
-        <v>337.7199</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20337.7199</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0195</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.3909</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1263.6474</v>
       </c>
       <c r="F4" s="1">
         <v>671.6774</v>
       </c>
       <c r="G4" s="1">
-        <v>1935.3248</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29631.9516</v>
+        <v>19347.8316</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>337.7199</v>
       </c>
       <c r="J4" s="1">
-        <v>15.5013</v>
+        <v>19685.5515</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.8272</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10337.7199</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29631.9516</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0233</v>
+        <v>-0.0344</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.1095</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1935.3248</v>
       </c>
       <c r="F5" s="1">
         <v>560.6193</v>
       </c>
       <c r="G5" s="1">
-        <v>2495.9441</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31015.5153</v>
       </c>
       <c r="I5" s="1">
-        <v>39031.2964</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6379</v>
+        <v>31015.5153</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29031.2964</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.0007</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9031.296399999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>968.7036000000001</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40968.7036</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0337</v>
+        <v>0.0448</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.1222</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2495.9441</v>
       </c>
       <c r="F6" s="1">
         <v>621.535</v>
       </c>
       <c r="G6" s="1">
-        <v>3117.4791</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40031.4489</v>
       </c>
       <c r="I6" s="1">
-        <v>49051.8078</v>
+        <v>968.7036000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>15.7344</v>
+        <v>41000.1525</v>
       </c>
       <c r="K6" s="1">
+        <v>39051.8078</v>
+      </c>
+      <c r="L6" s="1">
+        <v>15.6461</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.2</v>
       </c>
-      <c r="L6" s="1">
-        <v>449.2699</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9571.2415</v>
+        <v>348.3585</v>
       </c>
       <c r="O6" s="1">
-        <v>1397.4621</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51397.4621</v>
+        <v>-9672.153</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.008399999999999999</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.3453</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3117.4791</v>
       </c>
       <c r="F7" s="1">
         <v>359.7134</v>
       </c>
       <c r="G7" s="1">
-        <v>3477.1925</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>53793.0368</v>
       </c>
       <c r="I7" s="1">
-        <v>55291.1452</v>
+        <v>1296.5507</v>
       </c>
       <c r="J7" s="1">
-        <v>15.9011</v>
+        <v>55089.5875</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45291.1452</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.5281</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6239.3374</v>
       </c>
-      <c r="O7" s="1">
-        <v>5158.1247</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65158.1247</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0613</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.8769</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3477.1925</v>
       </c>
       <c r="F8" s="1">
         <v>458.8856</v>
       </c>
       <c r="G8" s="1">
-        <v>3936.0781</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>61839.0871</v>
       </c>
       <c r="I8" s="1">
-        <v>63494.5968</v>
+        <v>5057.2133</v>
       </c>
       <c r="J8" s="1">
-        <v>16.1314</v>
+        <v>66896.30039999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>53494.5968</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.3844</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8203.4516</v>
       </c>
-      <c r="O8" s="1">
-        <v>6954.6732</v>
-      </c>
-      <c r="P8" s="1">
-        <v>76954.6732</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0239</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.8772</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3936.0781</v>
       </c>
       <c r="F9" s="1">
         <v>562.221</v>
       </c>
       <c r="G9" s="1">
-        <v>4498.2991</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70001.1808</v>
       </c>
       <c r="I9" s="1">
-        <v>73545.5338</v>
+        <v>6853.7617</v>
       </c>
       <c r="J9" s="1">
-        <v>16.3496</v>
+        <v>76854.9425</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63545.5338</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.1444</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10050.9371</v>
       </c>
-      <c r="O9" s="1">
-        <v>6903.7361</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86903.73609999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.1874</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4498.2991</v>
       </c>
       <c r="F10" s="1">
         <v>475.9729</v>
       </c>
       <c r="G10" s="1">
-        <v>4974.272</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>81388.17509999999</v>
       </c>
       <c r="I10" s="1">
-        <v>82202.243</v>
+        <v>6802.8246</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5255</v>
+        <v>88190.9997</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72202.243</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.051</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8656.7091</v>
       </c>
-      <c r="O10" s="1">
-        <v>8247.026900000001</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98247.0269</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0139</v>
+        <v>0.0154</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.6132</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4974.272</v>
       </c>
       <c r="F11" s="1">
         <v>732.9041999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5707.1762</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>87158.19839999999</v>
       </c>
       <c r="I11" s="1">
-        <v>95111.03200000001</v>
+        <v>8146.1155</v>
       </c>
       <c r="J11" s="1">
-        <v>16.6652</v>
+        <v>95304.31389999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>85111.03200000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1102</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12908.789</v>
       </c>
-      <c r="O11" s="1">
-        <v>5338.2379</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105338.2379</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0269</v>
+        <v>-0.0294</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.806</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5707.1762</v>
       </c>
       <c r="F12" s="1">
         <v>502.7065</v>
       </c>
       <c r="G12" s="1">
-        <v>6209.8827</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>101095.2071</v>
       </c>
       <c r="I12" s="1">
-        <v>104062.2247</v>
+        <v>5237.3265</v>
       </c>
       <c r="J12" s="1">
-        <v>16.7575</v>
+        <v>106332.5336</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>94062.22470000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.4814</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8951.1927</v>
       </c>
-      <c r="O12" s="1">
-        <v>6387.0452</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116387.0452</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0091</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.3524</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6209.8827</v>
       </c>
       <c r="F13" s="1">
         <v>362.8666</v>
       </c>
       <c r="G13" s="1">
-        <v>6572.7494</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>113375.0713</v>
       </c>
       <c r="I13" s="1">
-        <v>110721.6983</v>
+        <v>6286.1338</v>
       </c>
       <c r="J13" s="1">
-        <v>16.8456</v>
+        <v>119661.205</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>100721.6983</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.2196</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6659.4736</v>
       </c>
-      <c r="O13" s="1">
-        <v>9727.571599999999</v>
-      </c>
-      <c r="P13" s="1">
-        <v>129727.5716</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0264</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.7873</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6572.7494</v>
       </c>
       <c r="F14" s="1">
         <v>-6572.7494</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116305.4576</v>
       </c>
       <c r="I14" s="1">
-        <v>110721.6983</v>
+        <v>9626.660099999999</v>
       </c>
       <c r="J14" s="1">
-        <v>16.8456</v>
+        <v>125932.1177</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>100721.6983</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.3241</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>116305.4576</v>
       </c>
-      <c r="O14" s="1">
-        <v>126033.0292</v>
-      </c>
-      <c r="P14" s="1">
-        <v>126033.0292</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.098</v>
+        <v>-0.0288</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.2363</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>656.3273</v>
       </c>
       <c r="G2" s="1">
-        <v>656.3273</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.150100000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2363</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.150100000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.9097</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>656.3273</v>
       </c>
       <c r="F3" s="1">
         <v>610.4792</v>
       </c>
       <c r="G3" s="1">
-        <v>1266.8065</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10387.8238</v>
       </c>
       <c r="I3" s="1">
-        <v>19712.5407</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5608</v>
+        <v>10387.8238</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9712.5407</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.7983</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9712.5407</v>
       </c>
-      <c r="O3" s="1">
-        <v>287.4593</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20337.4593</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0195</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.3909</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1266.8065</v>
       </c>
       <c r="F4" s="1">
         <v>668.4118</v>
       </c>
       <c r="G4" s="1">
-        <v>1935.2183</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29630.3212</v>
+        <v>19396.2012</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>287.4593</v>
       </c>
       <c r="J4" s="1">
-        <v>15.5021</v>
+        <v>19683.6604</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.7877</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10287.4593</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29630.3212</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0233</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.1095</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1935.2183</v>
       </c>
       <c r="F5" s="1">
         <v>579.5078</v>
       </c>
       <c r="G5" s="1">
-        <v>2514.7261</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31013.8088</v>
       </c>
       <c r="I5" s="1">
-        <v>39335.5814</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6421</v>
+        <v>31013.8088</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29335.5814</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.1588</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9335.581399999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>664.4186</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40965.4199</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0337</v>
+        <v>0.0448</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.1222</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2514.7261</v>
       </c>
       <c r="F6" s="1">
         <v>634.0839999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3148.8101</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40332.6868</v>
       </c>
       <c r="I6" s="1">
-        <v>49558.4103</v>
+        <v>664.4186</v>
       </c>
       <c r="J6" s="1">
-        <v>15.7388</v>
+        <v>40997.1054</v>
       </c>
       <c r="K6" s="1">
+        <v>39558.4103</v>
+      </c>
+      <c r="L6" s="1">
+        <v>15.7307</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.2</v>
       </c>
-      <c r="L6" s="1">
-        <v>452.6507</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9770.1782</v>
+        <v>348.3393</v>
       </c>
       <c r="O6" s="1">
-        <v>894.2404</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51396.7467</v>
+        <v>-9874.489600000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.008500000000000001</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.3453</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3148.8101</v>
       </c>
       <c r="F7" s="1">
         <v>372.1381</v>
       </c>
       <c r="G7" s="1">
-        <v>3520.9483</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>54333.6635</v>
       </c>
       <c r="I7" s="1">
-        <v>56013.2579</v>
+        <v>789.929</v>
       </c>
       <c r="J7" s="1">
-        <v>15.9086</v>
+        <v>55123.5926</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46013.2579</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.6129</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6454.8477</v>
       </c>
-      <c r="O7" s="1">
-        <v>4439.3928</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65194.4115</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0619</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.8769</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3520.9483</v>
       </c>
       <c r="F8" s="1">
         <v>474.6655</v>
       </c>
       <c r="G8" s="1">
-        <v>3995.6137</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>62617.2483</v>
       </c>
       <c r="I8" s="1">
-        <v>64498.805</v>
+        <v>4335.0813</v>
       </c>
       <c r="J8" s="1">
-        <v>16.1424</v>
+        <v>66952.3297</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54498.805</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.4784</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8485.547</v>
       </c>
-      <c r="O8" s="1">
-        <v>5953.8457</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77012.63959999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0242</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,40 +2595,40 @@
         <v>17.8772</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3995.6137</v>
       </c>
       <c r="F9" s="1">
         <v>582.1977000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4577.8115</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71059.9926</v>
       </c>
       <c r="I9" s="1">
-        <v>74906.87</v>
+        <v>5849.5343</v>
       </c>
       <c r="J9" s="1">
-        <v>16.363</v>
+        <v>76909.5269</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64906.87</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.2445</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10408.065</v>
-      </c>
-      <c r="O9" s="1">
-        <v>5545.7807</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86959.8686</v>
       </c>
       <c r="Q9" s="3">
         <v>-0.0005999999999999999</v>
@@ -2663,43 +2648,43 @@
         <v>18.1874</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4577.8115</v>
       </c>
       <c r="F10" s="1">
         <v>497.1154</v>
       </c>
       <c r="G10" s="1">
-        <v>5074.9268</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>82826.8005</v>
       </c>
       <c r="I10" s="1">
-        <v>83948.1058</v>
+        <v>5441.4693</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5417</v>
+        <v>88268.26979999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>73948.1058</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.1536</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9041.2358</v>
       </c>
-      <c r="O10" s="1">
-        <v>6504.5449</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98325.7032</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0141</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.6132</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5074.9268</v>
       </c>
       <c r="F11" s="1">
         <v>762.3881</v>
       </c>
       <c r="G11" s="1">
-        <v>5837.3149</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>88921.8526</v>
       </c>
       <c r="I11" s="1">
-        <v>97376.19960000001</v>
+        <v>6400.2335</v>
       </c>
       <c r="J11" s="1">
-        <v>16.6817</v>
+        <v>95322.0861</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87376.19960000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.2172</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-13428.0937</v>
       </c>
-      <c r="O11" s="1">
-        <v>3076.4512</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105356.7152</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0274</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.806</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5837.3149</v>
       </c>
       <c r="F12" s="1">
         <v>530.1671</v>
       </c>
       <c r="G12" s="1">
-        <v>6367.482</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>103400.4448</v>
       </c>
       <c r="I12" s="1">
-        <v>106816.3546</v>
+        <v>2972.1397</v>
       </c>
       <c r="J12" s="1">
-        <v>16.7753</v>
+        <v>106372.5846</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>96816.35460000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.5858</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9440.155000000001</v>
       </c>
-      <c r="O12" s="1">
-        <v>3636.2961</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116427.9615</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.009299999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.3524</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6367.482</v>
       </c>
       <c r="F13" s="1">
         <v>389.0647</v>
       </c>
       <c r="G13" s="1">
-        <v>6756.5467</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>116252.3919</v>
       </c>
       <c r="I13" s="1">
-        <v>113956.6254</v>
+        <v>3531.9847</v>
       </c>
       <c r="J13" s="1">
-        <v>16.8661</v>
+        <v>119784.3766</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>103956.6254</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.3262</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7140.2708</v>
       </c>
-      <c r="O13" s="1">
-        <v>6496.0253</v>
-      </c>
-      <c r="P13" s="1">
-        <v>129851.649</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0271</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.7873</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6756.5467</v>
       </c>
       <c r="F14" s="1">
         <v>-6756.5467</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119557.7688</v>
       </c>
       <c r="I14" s="1">
-        <v>113956.6254</v>
+        <v>6391.7139</v>
       </c>
       <c r="J14" s="1">
-        <v>16.8661</v>
+        <v>125949.4827</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>103956.6254</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.3861</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>119557.7688</v>
       </c>
-      <c r="O14" s="1">
-        <v>126053.7942</v>
-      </c>
-      <c r="P14" s="1">
-        <v>126053.7942</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0987</v>
+        <v>-0.0295</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.2363</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>656.3273</v>
       </c>
       <c r="G2" s="1">
-        <v>656.3273</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.150100000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2363</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.150100000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.9097</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>656.3273</v>
       </c>
       <c r="F3" s="1">
         <v>613.6383</v>
       </c>
       <c r="G3" s="1">
-        <v>1269.9656</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10387.8238</v>
       </c>
       <c r="I3" s="1">
-        <v>19762.8013</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5617</v>
+        <v>10387.8238</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9762.801299999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.8749</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9762.801299999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>237.1987</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20337.1987</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0195</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.3909</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1269.9656</v>
       </c>
       <c r="F4" s="1">
         <v>665.1462</v>
       </c>
       <c r="G4" s="1">
-        <v>1935.1118</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29628.6907</v>
+        <v>19444.5707</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>237.1987</v>
       </c>
       <c r="J4" s="1">
-        <v>15.503</v>
+        <v>19681.7694</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.7485</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10237.1987</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29628.6907</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0234</v>
+        <v>-0.0346</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.1095</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1935.1118</v>
       </c>
       <c r="F5" s="1">
         <v>598.5216</v>
       </c>
       <c r="G5" s="1">
-        <v>2533.6335</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31012.1022</v>
       </c>
       <c r="I5" s="1">
-        <v>39641.8844</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6463</v>
+        <v>31012.1022</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29641.8844</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.3179</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9641.884400000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>358.1156</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40962.1256</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0336</v>
+        <v>0.0448</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.1222</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2533.6335</v>
       </c>
       <c r="F6" s="1">
         <v>642.4752999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3176.1088</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50940.3385</v>
+        <v>40635.9338</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>358.1156</v>
       </c>
       <c r="J6" s="1">
-        <v>15.7425</v>
+        <v>40994.0494</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>15.7876</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.2</v>
       </c>
-      <c r="L6" s="1">
-        <v>456.054</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9902.061600000001</v>
+        <v>348.3201</v>
       </c>
       <c r="O6" s="1">
-        <v>456.054</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51396.3925</v>
+        <v>-10009.7955</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.008500000000000001</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.3453</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3176.1088</v>
       </c>
       <c r="F7" s="1">
         <v>389.1813</v>
       </c>
       <c r="G7" s="1">
-        <v>3565.2901</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>54804.71</v>
       </c>
       <c r="I7" s="1">
-        <v>56750.4669</v>
+        <v>348.3201</v>
       </c>
       <c r="J7" s="1">
-        <v>15.9175</v>
+        <v>55153.0302</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46750.4669</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.7194</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6750.4669</v>
       </c>
-      <c r="O7" s="1">
-        <v>3705.5871</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65225.7377</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0624</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.8769</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3565.2901</v>
       </c>
       <c r="F8" s="1">
         <v>490.8582</v>
       </c>
       <c r="G8" s="1">
-        <v>4056.1483</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63405.8325</v>
       </c>
       <c r="I8" s="1">
-        <v>65525.489</v>
+        <v>3597.8532</v>
       </c>
       <c r="J8" s="1">
-        <v>16.1546</v>
+        <v>67003.68580000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55525.489</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5739</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8775.0221</v>
       </c>
-      <c r="O8" s="1">
-        <v>4930.565</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77065.91710000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0245</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,40 +3363,40 @@
         <v>17.8772</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4056.1483</v>
       </c>
       <c r="F9" s="1">
         <v>602.7798</v>
       </c>
       <c r="G9" s="1">
-        <v>4658.928</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>72136.569</v>
       </c>
       <c r="I9" s="1">
-        <v>76301.5034</v>
+        <v>4822.8311</v>
       </c>
       <c r="J9" s="1">
-        <v>16.3775</v>
+        <v>76959.4001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66301.5034</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.3459</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10776.0144</v>
-      </c>
-      <c r="O9" s="1">
-        <v>4154.5507</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87011.25629999999</v>
       </c>
       <c r="Q9" s="3">
         <v>-0.0005999999999999999</v>
@@ -3437,43 +3416,43 @@
         <v>18.1874</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4658.928</v>
       </c>
       <c r="F10" s="1">
         <v>519.0278</v>
       </c>
       <c r="G10" s="1">
-        <v>5177.9558</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>84294.45080000001</v>
       </c>
       <c r="I10" s="1">
-        <v>85741.2696</v>
+        <v>4046.8168</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5589</v>
+        <v>88341.26760000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>75741.2696</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.2572</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9439.7662</v>
       </c>
-      <c r="O10" s="1">
-        <v>4714.7845</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98400.0572</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0143</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.6132</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5177.9558</v>
       </c>
       <c r="F11" s="1">
         <v>793.0132</v>
       </c>
       <c r="G11" s="1">
-        <v>5970.969</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>90727.10649999999</v>
       </c>
       <c r="I11" s="1">
-        <v>99708.7699</v>
+        <v>4607.0506</v>
       </c>
       <c r="J11" s="1">
-        <v>16.6989</v>
+        <v>95334.1571</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89708.7699</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.3251</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-13967.5003</v>
       </c>
-      <c r="O11" s="1">
-        <v>747.2842000000001</v>
-      </c>
-      <c r="P11" s="1">
-        <v>105369.4096</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.028</v>
+        <v>-0.0306</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.806</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5970.969</v>
       </c>
       <c r="F12" s="1">
         <v>558.9116</v>
       </c>
       <c r="G12" s="1">
-        <v>6529.8806</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>105767.9544</v>
       </c>
       <c r="I12" s="1">
-        <v>109660.7497</v>
+        <v>639.5503</v>
       </c>
       <c r="J12" s="1">
-        <v>16.7937</v>
+        <v>106407.5046</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99660.7497</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.6909</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9951.979799999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>795.3043</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116463.651</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0095</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>18.3524</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6529.8806</v>
       </c>
       <c r="F13" s="1">
         <v>416.6955</v>
       </c>
       <c r="G13" s="1">
-        <v>6946.5762</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>119217.3368</v>
       </c>
       <c r="I13" s="1">
-        <v>117308.1124</v>
+        <v>687.5703999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>16.8872</v>
+        <v>119904.9072</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>107308.1124</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.4334</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7647.3628</v>
       </c>
-      <c r="O13" s="1">
-        <v>3147.9416</v>
-      </c>
-      <c r="P13" s="1">
-        <v>129972.9717</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0277</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.7873</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6946.5762</v>
       </c>
       <c r="F14" s="1">
         <v>-6946.5762</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122920.3597</v>
       </c>
       <c r="I14" s="1">
-        <v>117308.1124</v>
+        <v>3040.2077</v>
       </c>
       <c r="J14" s="1">
-        <v>16.8872</v>
+        <v>125960.5674</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>107308.1124</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.4476</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>122920.3597</v>
       </c>
-      <c r="O14" s="1">
-        <v>126068.3013</v>
-      </c>
-      <c r="P14" s="1">
-        <v>126068.3013</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0993</v>
+        <v>-0.0304</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.2363</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>656.3273</v>
       </c>
       <c r="G2" s="1">
-        <v>656.3273</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.150100000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.2363</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.150100000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.9097</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>656.3273</v>
       </c>
       <c r="F3" s="1">
         <v>616.7974</v>
       </c>
       <c r="G3" s="1">
-        <v>1273.1247</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10387.8238</v>
       </c>
       <c r="I3" s="1">
-        <v>19813.062</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5625</v>
+        <v>10387.8238</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9813.062</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.9515</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9813.062</v>
       </c>
-      <c r="O3" s="1">
-        <v>186.938</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20336.938</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0195</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.3909</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1273.1247</v>
       </c>
       <c r="F4" s="1">
         <v>661.8806</v>
       </c>
       <c r="G4" s="1">
-        <v>1935.0053</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29627.0603</v>
+        <v>19492.9403</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>186.938</v>
       </c>
       <c r="J4" s="1">
-        <v>15.5038</v>
+        <v>19679.8783</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.7094</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10186.938</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29627.0603</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0234</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.1095</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1935.0053</v>
       </c>
       <c r="F5" s="1">
         <v>617.6612</v>
       </c>
       <c r="G5" s="1">
-        <v>2552.6665</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0338</v>
+        <v>31010.3956</v>
       </c>
       <c r="I5" s="1">
-        <v>39950.2129</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.6504</v>
+        <v>31010.3956</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29950.2129</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.4781</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9950.2129</v>
       </c>
-      <c r="O5" s="1">
-        <v>49.7871</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40958.8209</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0336</v>
+        <v>0.0448</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.1222</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2552.6665</v>
       </c>
       <c r="F6" s="1">
         <v>623.3509</v>
       </c>
       <c r="G6" s="1">
-        <v>3176.0174</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50938.8724</v>
+        <v>40941.1973</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>49.7871</v>
       </c>
       <c r="J6" s="1">
-        <v>15.743</v>
+        <v>40990.9845</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>15.6699</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.2</v>
       </c>
-      <c r="L6" s="1">
-        <v>459.48</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9590.307199999999</v>
+        <v>348.301</v>
       </c>
       <c r="O6" s="1">
-        <v>459.48</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51398.3523</v>
+        <v>-9701.486199999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0086</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.3453</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3176.0174</v>
       </c>
       <c r="F7" s="1">
         <v>434.2073</v>
       </c>
       <c r="G7" s="1">
-        <v>3610.2246</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>54803.1327</v>
       </c>
       <c r="I7" s="1">
-        <v>57531.4553</v>
+        <v>348.301</v>
       </c>
       <c r="J7" s="1">
-        <v>15.9357</v>
+        <v>55151.4337</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47531.4553</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.9657</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7531.4553</v>
       </c>
-      <c r="O7" s="1">
-        <v>2928.0247</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65223.534</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0623</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.8769</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3610.2246</v>
       </c>
       <c r="F8" s="1">
         <v>507.4721</v>
       </c>
       <c r="G8" s="1">
-        <v>4117.6967</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>64204.9571</v>
       </c>
       <c r="I8" s="1">
-        <v>66603.48269999999</v>
+        <v>2816.8457</v>
       </c>
       <c r="J8" s="1">
-        <v>16.1749</v>
+        <v>67021.8028</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56603.4827</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.6787</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9072.0275</v>
       </c>
-      <c r="O8" s="1">
-        <v>3855.9972</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77085.93919999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0248</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.8772</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4117.6967</v>
       </c>
       <c r="F9" s="1">
         <v>623.9823</v>
       </c>
       <c r="G9" s="1">
-        <v>4741.679</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>73231.17720000001</v>
       </c>
       <c r="I9" s="1">
-        <v>77758.53969999999</v>
+        <v>3744.8182</v>
       </c>
       <c r="J9" s="1">
-        <v>16.3989</v>
+        <v>76975.9955</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67758.53969999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.4554</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11155.057</v>
       </c>
-      <c r="O9" s="1">
-        <v>2700.9403</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87029.33130000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0007</v>
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.1874</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4741.679</v>
       </c>
       <c r="F10" s="1">
         <v>541.7338</v>
       </c>
       <c r="G10" s="1">
-        <v>5283.4128</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>85791.6732</v>
       </c>
       <c r="I10" s="1">
-        <v>87611.2689</v>
+        <v>2589.7612</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5823</v>
+        <v>88381.4345</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77611.2689</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.3679</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9852.7292</v>
       </c>
-      <c r="O10" s="1">
-        <v>2848.211</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98441.52800000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0146</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.6132</v>
       </c>
       <c r="E11" s="1">
+        <v>5283.4128</v>
+      </c>
+      <c r="F11" s="1">
+        <v>723.1526</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>729.4648999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6012.8777</v>
-      </c>
       <c r="H11" s="1">
-        <v>105356.4411</v>
+        <v>92574.9032</v>
       </c>
       <c r="I11" s="1">
-        <v>100459.48</v>
+        <v>2737.032</v>
       </c>
       <c r="J11" s="1">
-        <v>16.7074</v>
+        <v>95311.93520000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90348.30100000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.1004</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12848.211</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>105356.4411</v>
+        <v>-12737.032</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0284</v>
+        <v>-0.0312</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.806</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6006.5655</v>
       </c>
       <c r="F12" s="1">
         <v>561.6084</v>
       </c>
       <c r="G12" s="1">
-        <v>6574.4862</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>116458.4759</v>
+        <v>106398.499</v>
       </c>
       <c r="I12" s="1">
-        <v>110459.48</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.8012</v>
+        <v>106398.499</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100348.301</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7064</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116458.4759</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.3524</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6568.1739</v>
       </c>
       <c r="F13" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7119.374</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>129979.8358</v>
+        <v>119916.465</v>
       </c>
       <c r="I13" s="1">
-        <v>120459.48</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.92</v>
+        <v>119916.465</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110348.301</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.8005</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>129979.8358</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0278</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>17.7873</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7113.0618</v>
       </c>
       <c r="F14" s="1">
-        <v>-7119.374</v>
+        <v>-7113.0618</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125866.3397</v>
       </c>
       <c r="I14" s="1">
-        <v>120459.48</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.92</v>
+        <v>125866.3397</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110348.301</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5135</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125978.0357</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125978.0357</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125978.0357</v>
+        <v>125866.3397</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1</v>
+        <v>-0.0312</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.7394</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.9168</v>
+        <v>15.5104</v>
       </c>
       <c r="D3" s="1">
-        <v>16.8456</v>
+        <v>15.3241</v>
       </c>
       <c r="E3" s="1">
-        <v>16.8661</v>
+        <v>15.3861</v>
       </c>
       <c r="F3" s="1">
-        <v>16.8872</v>
+        <v>15.4476</v>
       </c>
       <c r="G3" s="1">
-        <v>16.92</v>
+        <v>15.5135</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1622</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0486</v>
+        <v>0.1529</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0475</v>
+        <v>0.1518</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0482</v>
+        <v>0.1525</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0488</v>
+        <v>0.1531</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0482</v>
+        <v>0.1524</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.114</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1356</v>
+        <v>0.1168</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1325</v>
+        <v>0.1132</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1336</v>
+        <v>0.1144</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1347</v>
+        <v>0.1155</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1354</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.2442</v>
       </c>
       <c r="C6" s="4">
-        <v>0.2083</v>
+        <v>1.1349</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2049</v>
+        <v>1.1609</v>
       </c>
       <c r="E6" s="4">
-        <v>0.2084</v>
+        <v>1.1556</v>
       </c>
       <c r="F6" s="4">
-        <v>0.2113</v>
+        <v>1.1499</v>
       </c>
       <c r="G6" s="4">
-        <v>0.206</v>
+        <v>1.1375</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.09379999999999999</v>
+        <v>-0.058</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1008</v>
+        <v>0.099</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0993</v>
+        <v>0.0974</v>
       </c>
       <c r="F7" s="3">
-        <v>0.09760000000000001</v>
+        <v>0.0958</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0949</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>459.965</v>
+        <v>348.2297</v>
       </c>
       <c r="D8" s="1">
-        <v>449.2699</v>
+        <v>348.3585</v>
       </c>
       <c r="E8" s="1">
-        <v>452.6507</v>
+        <v>348.3393</v>
       </c>
       <c r="F8" s="1">
-        <v>456.054</v>
+        <v>348.3201</v>
       </c>
       <c r="G8" s="1">
-        <v>459.48</v>
+        <v>348.301</v>
       </c>
     </row>
   </sheetData>
